--- a/data/Data_exemple.xlsx
+++ b/data/Data_exemple.xlsx
@@ -1,162 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anais\Documents\Recherche\github\R-pour-archeologues\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A39B8D-7C4F-442C-A3D3-3B3E8E477DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_exemple" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
+    <t>numero</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>x (cm)</t>
+  </si>
+  <si>
+    <t>y (cm)</t>
+  </si>
+  <si>
+    <t>longueur (cm)</t>
+  </si>
+  <si>
+    <t>largeur (cm)</t>
+  </si>
+  <si>
+    <t>silex</t>
+  </si>
+  <si>
+    <t>raccord</t>
   </si>
   <si>
     <t>gravette</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>type A</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>type C</t>
+  </si>
+  <si>
     <t>picardie</t>
   </si>
   <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>type B</t>
+  </si>
+  <si>
+    <t>percoir</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>burin</t>
   </si>
   <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>burin diedre</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
     <t>burin du Raysse</t>
   </si>
   <si>
+    <t>5.3</t>
+  </si>
+  <si>
     <t>chute de burin</t>
   </si>
   <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>nucleus a eclats laminaires</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
     <t>lame</t>
   </si>
   <si>
-    <t>longueur</t>
-  </si>
-  <si>
-    <t>silex</t>
-  </si>
-  <si>
-    <t>type1</t>
-  </si>
-  <si>
-    <t>type 2</t>
-  </si>
-  <si>
-    <t>type 3</t>
-  </si>
-  <si>
-    <t>raccord</t>
-  </si>
-  <si>
-    <t>percoir</t>
-  </si>
-  <si>
-    <t>burin diedre</t>
-  </si>
-  <si>
-    <t>nucleus a eclats laminaires</t>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
   <si>
     <t>eclat</t>
-  </si>
-  <si>
-    <t>numero</t>
-  </si>
-  <si>
-    <t>largeur</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>1.9</t>
   </si>
   <si>
     <t>2.3</t>
@@ -213,8 +214,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,16 +223,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -239,15 +540,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,7 +769,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -291,7 +781,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -338,6 +828,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -373,6 +880,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,478 +1052,475 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C9">
+        <v>260</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
@@ -1008,67 +1529,67 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="E23" t="s">
         <v>49</v>
@@ -1077,21 +1598,21 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -1100,21 +1621,21 @@
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -1123,21 +1644,21 @@
         <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="E26" t="s">
         <v>55</v>
@@ -1146,21 +1667,21 @@
         <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
@@ -1169,21 +1690,21 @@
         <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
@@ -1192,21 +1713,21 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
@@ -1215,113 +1736,113 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="E30" t="s">
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E32" t="s">
         <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
@@ -1330,7 +1851,7 @@
         <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_exemple.xlsx
+++ b/data/Data_exemple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anais\Documents\Recherche\github\R-pour-archeologues\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aymeric.hermann/Documents/Github/R-pour-archeologues/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A39B8D-7C4F-442C-A3D3-3B3E8E477DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77412241-1602-1347-98A9-B01BBDE695B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_exemple" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>x (cm)</t>
-  </si>
-  <si>
-    <t>y (cm)</t>
-  </si>
-  <si>
-    <t>longueur (cm)</t>
-  </si>
-  <si>
-    <t>largeur (cm)</t>
-  </si>
-  <si>
     <t>silex</t>
   </si>
   <si>
@@ -209,12 +197,24 @@
   </si>
   <si>
     <t>2.2</t>
+  </si>
+  <si>
+    <t>x_cm</t>
+  </si>
+  <si>
+    <t>y_cm</t>
+  </si>
+  <si>
+    <t>longueur_cm</t>
+  </si>
+  <si>
+    <t>largeur_cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,48 +696,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1048,16 +1048,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,30 +1065,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1100,18 +1100,18 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -1120,21 +1120,21 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -1143,24 +1143,24 @@
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>260</v>
@@ -1169,21 +1169,21 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>240</v>
@@ -1195,21 +1195,21 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>280</v>
@@ -1221,18 +1221,18 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>250</v>
@@ -1241,21 +1241,21 @@
         <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>260</v>
@@ -1264,24 +1264,24 @@
         <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>230</v>
@@ -1293,21 +1293,21 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>180</v>
@@ -1316,21 +1316,21 @@
         <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>80</v>
@@ -1342,18 +1342,18 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -1362,21 +1362,21 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1385,21 +1385,21 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1408,21 +1408,21 @@
         <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -1431,21 +1431,21 @@
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>40</v>
@@ -1454,21 +1454,21 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1477,21 +1477,21 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>80</v>
@@ -1500,21 +1500,21 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
       <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>190</v>
@@ -1523,21 +1523,21 @@
         <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -1546,21 +1546,21 @@
         <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>280</v>
@@ -1569,21 +1569,21 @@
         <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>250</v>
@@ -1592,21 +1592,21 @@
         <v>360</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>260</v>
@@ -1615,21 +1615,21 @@
         <v>390</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>210</v>
@@ -1638,21 +1638,21 @@
         <v>340</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>230</v>
@@ -1661,21 +1661,21 @@
         <v>370</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>270</v>
@@ -1684,21 +1684,21 @@
         <v>330</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>240</v>
@@ -1707,21 +1707,21 @@
         <v>350</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>290</v>
@@ -1730,21 +1730,21 @@
         <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>250</v>
@@ -1753,21 +1753,21 @@
         <v>390</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>280</v>
@@ -1776,21 +1776,21 @@
         <v>370</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>260</v>
@@ -1799,21 +1799,21 @@
         <v>300</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>210</v>
@@ -1822,21 +1822,21 @@
         <v>290</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>200</v>
@@ -1845,13 +1845,13 @@
         <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data_exemple.xlsx
+++ b/data/Data_exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aymeric.hermann/Documents/Github/R-pour-archeologues/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77412241-1602-1347-98A9-B01BBDE695B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7F53F-5EEA-6446-B997-F667F1FEA9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>nucleus a eclats laminaires</t>
-  </si>
-  <si>
     <t>10.2</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>largeur_cm</t>
+  </si>
+  <si>
+    <t>nucleus a lames</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>180</v>
@@ -1316,10 +1316,10 @@
         <v>290</v>
       </c>
       <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -1330,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>80</v>
@@ -1342,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -1353,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -1362,10 +1362,10 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -1376,7 +1376,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1385,10 +1385,10 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1422,7 +1422,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -1431,10 +1431,10 @@
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -1445,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>40</v>
@@ -1454,10 +1454,10 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1468,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1477,10 +1477,10 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -1491,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>80</v>
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -1514,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>190</v>
@@ -1523,7 +1523,7 @@
         <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1537,7 +1537,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -1549,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -1560,7 +1560,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>280</v>
@@ -1569,7 +1569,7 @@
         <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -1583,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>250</v>
@@ -1592,10 +1592,10 @@
         <v>360</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -1606,7 +1606,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>260</v>
@@ -1615,10 +1615,10 @@
         <v>390</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
@@ -1629,7 +1629,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>210</v>
@@ -1638,10 +1638,10 @@
         <v>340</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -1652,7 +1652,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>230</v>
@@ -1661,10 +1661,10 @@
         <v>370</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>270</v>
@@ -1684,10 +1684,10 @@
         <v>330</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -1698,7 +1698,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>240</v>
@@ -1707,10 +1707,10 @@
         <v>350</v>
       </c>
       <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
         <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -1721,7 +1721,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>290</v>
@@ -1730,7 +1730,7 @@
         <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1744,7 +1744,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>250</v>
@@ -1753,10 +1753,10 @@
         <v>390</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -1767,7 +1767,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>280</v>
@@ -1776,7 +1776,7 @@
         <v>370</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1790,7 +1790,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>260</v>
@@ -1799,10 +1799,10 @@
         <v>300</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
@@ -1813,7 +1813,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>210</v>
@@ -1822,7 +1822,7 @@
         <v>290</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>200</v>
@@ -1845,10 +1845,10 @@
         <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
